--- a/EMS_Personal Info_Adithya Veldandi.xlsx
+++ b/EMS_Personal Info_Adithya Veldandi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a472bb48ae34f91f/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6AC1345-5CC3-4CCB-BD0F-9969C4BCC382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4179B1-09B7-4322-9988-4991756F93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Information" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="297">
   <si>
     <t>Test ID</t>
   </si>
@@ -532,10 +533,6 @@
     <t>EMS_TS_PI_005</t>
   </si>
   <si>
-    <t>Address 
-Information</t>
-  </si>
-  <si>
     <t>Verify that the Employee's Modified on  is displayed on Address Inormation</t>
   </si>
   <si>
@@ -628,10 +625,6 @@
     <t>Verify the Functionalities of Employee's  PAN and Aadhaar Information</t>
   </si>
   <si>
-    <t>PAN and Aadhaar 
-Information</t>
-  </si>
-  <si>
     <t>EMP_TC_CSI_001</t>
   </si>
   <si>
@@ -752,10 +745,6 @@
     <t>EMS_TS_PI_006</t>
   </si>
   <si>
-    <t>Compensation
-Information</t>
-  </si>
-  <si>
     <t>EMS_TS_PI_007</t>
   </si>
   <si>
@@ -805,6 +794,226 @@
   </si>
   <si>
     <t>Compensation Information</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_001</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_002</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_003</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_004</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_005</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_006</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_007</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_008</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_009</t>
+  </si>
+  <si>
+    <t>Verify functionality of the "Expand All Education History" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the employee's Education History is 
+displayed </t>
+  </si>
+  <si>
+    <t>Employee is on Education History Page</t>
+  </si>
+  <si>
+    <t>1.User should be logged in EMS application
+2.Click on Self Service Button
+3.Click on personal Info option
+4.Click on Education History button</t>
+  </si>
+  <si>
+    <t>Education History name is displayed
+correctly</t>
+  </si>
+  <si>
+    <t>Employees Education History sections are Expanded</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_010</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_011</t>
+  </si>
+  <si>
+    <t>EMP_TC_EH_012</t>
+  </si>
+  <si>
+    <t>Employees Education Levels is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Education Area is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Education Stream is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Education City is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Education year passed is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Skills is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Education certifications is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Certification month is displayed correctly</t>
+  </si>
+  <si>
+    <t>Employee Certification year is displayed correctly</t>
+  </si>
+  <si>
+    <t>Verify if employee Year is dispalyed on the education
+history page</t>
+  </si>
+  <si>
+    <t>Verify if employee Skills  is displayed on the education
+history page</t>
+  </si>
+  <si>
+    <t>Verify if employee Certifications  is displayed on the education history page</t>
+  </si>
+  <si>
+    <t>Verify if employee Stream  is displayed on the education
+history page</t>
+  </si>
+  <si>
+    <t>Verify if employee Area  is displayed on the education
+history page</t>
+  </si>
+  <si>
+    <t>Verify if employee education level is displayed on the education history page</t>
+  </si>
+  <si>
+    <t>Verify if employee City  is displayed on the education
+history page</t>
+  </si>
+  <si>
+    <t>Verify if employee Year Passed  is displayed on the education history page</t>
+  </si>
+  <si>
+    <t>Verify functionality of the "Collapse All Education History" button</t>
+  </si>
+  <si>
+    <t>Employees Education History sections are Collapsed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Functionalities of Employee's  Education History </t>
+  </si>
+  <si>
+    <t>EMS_TS_PI_008</t>
+  </si>
+  <si>
+    <t>EDUCATION 
+HISTORY</t>
+  </si>
+  <si>
+    <t>ADDRESS
+INFORMATION</t>
+  </si>
+  <si>
+    <t>PAN &amp; AADHAAR
+INFORMATION</t>
+  </si>
+  <si>
+    <t>COMPENSATION
+INFORMATION</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Education History</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Verify if employee Month  is displayed on the education history page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the employee's Skills  is 
+displayed </t>
+  </si>
+  <si>
+    <t>Employee is on Skills Page</t>
+  </si>
+  <si>
+    <t>1.User should be logged in EMS application
+2.Click on Self Service Button
+3.Click on personal Info option
+4.Click on Skills button</t>
+  </si>
+  <si>
+    <t>Employees Skills sections are Expanded</t>
+  </si>
+  <si>
+    <t>Skills name is displayed correctly</t>
+  </si>
+  <si>
+    <t>Verify functionality of the "Expand All Skills"  button</t>
+  </si>
+  <si>
+    <t>Verify the Employee skills fields are dispalyed on the 
+Skills page</t>
+  </si>
+  <si>
+    <t>Verify functionality of the "Collapse All Skills"  button</t>
+  </si>
+  <si>
+    <t>Employees Skills sections are Collapsed</t>
+  </si>
+  <si>
+    <t>Employee all skills fields are displayed correctly</t>
+  </si>
+  <si>
+    <t>SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Functionalities of Employee's  Skills </t>
+  </si>
+  <si>
+    <t>EMS_TS_PI_009</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>EMP_TC_SK_001</t>
+  </si>
+  <si>
+    <t>EMP_TC_SK_002</t>
+  </si>
+  <si>
+    <t>EMP_TC_SK_003</t>
+  </si>
+  <si>
+    <t>EMP_TC_SK_004</t>
   </si>
 </sst>
 </file>
@@ -901,12 +1110,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -927,6 +1130,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1027,12 +1236,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1047,26 +1252,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1075,32 +1280,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,18 +1314,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,7 +1344,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,277 +1644,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N72"/>
+  <dimension ref="A2:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
     <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7265625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="46.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.81640625" customWidth="1"/>
     <col min="8" max="8" width="26.36328125" customWidth="1"/>
     <col min="9" max="9" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="46">
+        <v>45407</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="E6" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="E7" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" s="51" t="s">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="51" t="s">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="48" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="49">
-        <v>45407</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="E6" s="50" t="s">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F10" s="48" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="E7" s="50" t="s">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F11" s="50" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E8" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E9" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E10" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>232</v>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E12" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="E13" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C16" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D16" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G16" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H16" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I16" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J16" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M16" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N16" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="39" t="s">
+    <row r="17" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="19"/>
-      <c r="D17" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
-        <v>58</v>
+      <c r="I17" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1702,1408 +1870,2273 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="40" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="40" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="40" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D24" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="40" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="40" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="40" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="40" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="13" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="40" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="40" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="40" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="40" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="40" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D35" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="9" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="1" t="s">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D36" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="9" t="s">
+      <c r="H36" s="3"/>
+      <c r="I36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="39" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="39" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="28"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G38" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="9" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="39" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="9" t="s">
+      <c r="H39" s="3"/>
+      <c r="I39" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="39" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="9" t="s">
+      <c r="H40" s="3"/>
+      <c r="I40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="46" t="s">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B41" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D41" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="9" t="s">
+      <c r="H41" s="3"/>
+      <c r="I41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="39" t="s">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="9" t="s">
+      <c r="H42" s="3"/>
+      <c r="I42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="39" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="9" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="39" t="s">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="28"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="9" t="s">
+      <c r="H44" s="3"/>
+      <c r="I44" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="39" t="s">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E45" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="9" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="39" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="29"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E47" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="39" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A48" s="29"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E48" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G48" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="9" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="39" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A49" s="29"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E49" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G49" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="39" t="s">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A50" s="29"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F50" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A48" s="43" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A51" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" s="29"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A53" s="29"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="F53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G53" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G54" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A51" s="31"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="9" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A53" s="31"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="39" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G57" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A54" s="31"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="E58" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="9" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A59" s="29"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A60" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="29"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A62" s="29"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A63" s="29"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A55" s="31"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A56" s="31"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A57" s="43" t="s">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A65" s="29"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" s="29"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A58" s="31"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A60" s="31"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A62" s="31"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62" s="32" t="s">
+      <c r="E66" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G66" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A67" s="29"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A68" s="29"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A69" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I62" s="9" t="s">
+      <c r="D69" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A70" s="29"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A71" s="29"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A72" s="29"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A73" s="29"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="A74" s="51"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A63" s="31"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="F74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="9" t="s">
+      <c r="H74" s="3"/>
+      <c r="I74" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A64" s="31"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A65" s="31"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A67" s="31"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A68" s="31"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A69" s="31"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A70" s="31"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="29"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="29"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="29"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="29"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="29"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="29"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="29"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="29"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="29"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="29"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="29"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="29"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="29"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="29"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E62215-074B-4841-8544-C06CDF04453A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>